--- a/biology/Botanique/Annickia/Annickia.xlsx
+++ b/biology/Botanique/Annickia/Annickia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annickia Setten &amp; Maas est un genre de plantes de la famille des Annonaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 janvier 2018) :
 Annickia affinis (Exell) Versteegh &amp; Sosef
 Annickia ambigua (Robyns &amp; Ghesq.) Setten &amp; Maas
 Annickia chlorantha (Oliv.) Setten &amp; Maas
@@ -522,18 +536,18 @@
 Annickia letestui (Le Thomas) Setten &amp; Maas
 Annickia pilosa (Exell) Setten &amp; Maas
 Annickia polycarpa (DC.) Setten &amp; Maas
-Selon GRIN            (12 janvier 2018)[3] :
+Selon GRIN            (12 janvier 2018) :
 Annickia affinis (Exell) Versteegh &amp; Sosef
 Annickia chlorantha (Oliv.) Setten &amp; Maas
 Annickia polycarpa (DC.) Setten &amp; Maas
-Selon NCBI  (12 janvier 2018)[4] :
+Selon NCBI  (12 janvier 2018) :
 Annickia ambigua
 Annickia chlorantha
 Annickia kummeriae
 Annickia letestui
 Annickia pilosa
 Annickia polycarpa
-Selon The Plant List            (12 janvier 2018)[5] :
+Selon The Plant List            (12 janvier 2018) :
 Annickia affinis (Exell) Versteegh &amp; Sosef
 Annickia ambigua (Robyns &amp; Ghesq.) Setten &amp; Maas
 Annickia atrocyanescens (Robyns &amp; Ghesq.) Setten &amp; Maas
@@ -545,7 +559,7 @@
 Annickia olivacea (Robyns &amp; Ghesq.) Setten &amp; Maas
 Annickia pilosa (Exell) Setten &amp; Maas
 Annickia polycarpa (DC.) Setten &amp; Maas ex I.M.Turner
-Selon Tropicos                                           (12 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 Annickia affinis (Exell) Versteegh &amp; Sosef
 Annickia ambigua (Robyns &amp; Ghesq.) Setten &amp; Maas
 Annickia atrocyanescens (Robyns &amp; Ghesq.) Setten &amp; Maas
